--- a/target/test-classes/TestCase_v10.xlsx
+++ b/target/test-classes/TestCase_v10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaa./Documents/project/apiAuto/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ECA136-9935-1E43-A1C9-E720D4A918D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06011F19-BD2E-9A4E-B536-F012D496F217}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5780" yWindow="1120" windowWidth="27440" windowHeight="16540" xr2:uid="{03CFF585-8EAA-974E-B709-D7D4176395E7}"/>
+    <workbookView xWindow="1360" yWindow="1120" windowWidth="27440" windowHeight="16540" activeTab="1" xr2:uid="{03CFF585-8EAA-974E-B709-D7D4176395E7}"/>
   </bookViews>
   <sheets>
     <sheet name="ApiInfoSheet" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="94">
   <si>
     <t>CaseId(用例编号)</t>
   </si>
@@ -308,13 +308,19 @@
   </si>
   <si>
     <t>http://47.107.166.132:8080/futureloan/mvc/api/financelog/getFinanceLogList</t>
+  </si>
+  <si>
+    <t>[{“no”:”1”,”sql”:”select count(*) as totalNum from member where mobilephone=’13517315120’”}]</t>
+  </si>
+  <si>
+    <t>[{"no":"1","sql":"select leaveamount from member where mobilephone='13517315120'"}, {"no":"2","sql":"select count(*) as totalNum from financelog where IncomeMemberId = (select id from member where mobilephone='13517315120'"}]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -326,8 +332,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -350,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -372,6 +384,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,7 +705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72445A8-64EA-6546-9F38-72C432B7D5E6}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -906,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADF37B3-C487-1545-B431-E4A62F8DA59B}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -918,7 +934,7 @@
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="77.83203125" customWidth="1"/>
     <col min="6" max="6" width="36.6640625" customWidth="1"/>
-    <col min="7" max="7" width="43.33203125" customWidth="1"/>
+    <col min="7" max="7" width="204.33203125" customWidth="1"/>
     <col min="8" max="8" width="52.1640625" customWidth="1"/>
     <col min="9" max="9" width="40.33203125" customWidth="1"/>
     <col min="10" max="10" width="47.5" customWidth="1"/>
@@ -1027,7 +1043,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1042,6 +1058,12 @@
       </c>
       <c r="E6" s="5" t="s">
         <v>24</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1214,7 +1236,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1231,7 +1253,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1248,7 +1270,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1265,7 +1287,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1282,7 +1304,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1297,6 +1319,12 @@
       </c>
       <c r="E21" s="4" t="s">
         <v>58</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
